--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466817.0764096981</v>
+        <v>464378.6033099519</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>108.9066966496901</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>245.1911465657744</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>232.5374640788389</v>
       </c>
       <c r="V4" t="n">
-        <v>81.60113227924985</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>100.4028078304875</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>220.1612211844843</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>60.92400333270337</v>
+        <v>106.6467061034376</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>289.868110421413</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>30.2830096778784</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>109.4893704550624</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>247.438641845385</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181936</v>
+        <v>108.6115798077503</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>80.3398974490914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>101.3999237630426</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>140.3829797864967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>42.53134576114125</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060293</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>214.4033048062054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.84155641259345</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>69.8286381302724</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>107.0531836110632</v>
+        <v>167.246821098626</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699837</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670954</v>
+        <v>179.8615250417388</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8253826161913524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>34.67929910923817</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>173.5437604722325</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>220.4242417780349</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>88.42183553064734</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204827</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="C2" t="n">
-        <v>1312.873537264416</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.866772971799</v>
+        <v>1450.534597785713</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>1064.746345187468</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>653.760440397861</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.8811108217975</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040962</v>
+        <v>2868.952878826333</v>
       </c>
       <c r="V4" t="n">
-        <v>1364.080410900306</v>
+        <v>2614.268390620447</v>
       </c>
       <c r="W4" t="n">
-        <v>1074.663240863345</v>
+        <v>2324.851220583486</v>
       </c>
       <c r="X4" t="n">
-        <v>846.6736899653276</v>
+        <v>2096.861669685468</v>
       </c>
       <c r="Y4" t="n">
-        <v>625.8811108217975</v>
+        <v>1876.069090541938</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943748</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943748</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>922.582043345504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
         <v>1735.608663915319</v>
@@ -4756,19 +4756,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1452.302651179084</v>
+        <v>1406.118102925817</v>
       </c>
       <c r="V7" t="n">
-        <v>1452.302651179084</v>
+        <v>1151.43361471993</v>
       </c>
       <c r="W7" t="n">
-        <v>1162.885481142124</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X7" t="n">
-        <v>934.8959302441062</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.1033511005761</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1156.082344952776</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>770.2940923545314</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>359.3081875649238</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.3899067494191</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1816.699224396511</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1594.932608966036</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1594.932608966036</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1340.24812076015</v>
+        <v>1076.656586475145</v>
       </c>
       <c r="W10" t="n">
-        <v>1050.830950723189</v>
+        <v>1076.656586475145</v>
       </c>
       <c r="X10" t="n">
-        <v>1050.830950723189</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="Y10" t="n">
-        <v>830.0383715796588</v>
+        <v>627.8744564335971</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958753</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679684</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556326</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
         <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
         <v>1520.445529061503</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8426071208989</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>337.9526596229886</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>527.7722521572643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>527.7722521572643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5835,19 +5835,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048565</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925207</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101276</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122173</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122173</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2382.47666296148</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2382.47666296148</v>
+        <v>2376.429105670894</v>
       </c>
       <c r="T25" t="n">
-        <v>2162.875197984421</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U25" t="n">
-        <v>1873.799971328619</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V25" t="n">
-        <v>1619.115483122732</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W25" t="n">
-        <v>1329.698313085771</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X25" t="n">
-        <v>1101.708762187754</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y25" t="n">
-        <v>880.9161830442239</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856866</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474266</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,13 +6950,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1455.612352843496</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7154,43 +7154,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>245.7763449709929</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>321.1427480139836</v>
+        <v>165.7305790876791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>280.2757326366462</v>
       </c>
     </row>
     <row r="3">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>53.67437412677401</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>71.2204003741878</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>66.09406519747778</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>64.12421452922717</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016412</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>102.88970226179</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>84.77391660562097</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.53369029752821</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>60.19363748756463</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.4596884482287</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890358</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.2291039219418</v>
+        <v>45.84813034729837</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>251.505175280006</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>45.04089287986227</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>31.71340154579306</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>961526.7318622556</v>
+        <v>961526.7318622562</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631196</v>
+        <v>354580.0968631197</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855345</v>
@@ -26323,37 +26323,37 @@
         <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
         <v>383394.6348527531</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47189.2393454671</v>
+        <v>47189.23934546736</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813252</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813248</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26442,16 +26442,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="L4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10557.08828678116</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1129287.828771333</v>
+        <v>-1129474.222159872</v>
       </c>
       <c r="C6" t="n">
-        <v>192316.7770660084</v>
+        <v>192316.7770660086</v>
       </c>
       <c r="D6" t="n">
-        <v>192316.7770660088</v>
+        <v>192316.7770660086</v>
       </c>
       <c r="E6" t="n">
-        <v>-53697.44506529071</v>
+        <v>-53732.18299072616</v>
       </c>
       <c r="F6" t="n">
-        <v>271715.0167420647</v>
+        <v>271680.278816629</v>
       </c>
       <c r="G6" t="n">
-        <v>271715.0167420648</v>
+        <v>271680.2788166289</v>
       </c>
       <c r="H6" t="n">
-        <v>271715.0167420649</v>
+        <v>271680.278816629</v>
       </c>
       <c r="I6" t="n">
-        <v>271715.0167420645</v>
+        <v>271680.2788166289</v>
       </c>
       <c r="J6" t="n">
-        <v>54183.81434478704</v>
+        <v>54149.07641935129</v>
       </c>
       <c r="K6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.278816629</v>
       </c>
       <c r="L6" t="n">
-        <v>271715.0167420647</v>
+        <v>271680.2788166289</v>
       </c>
       <c r="M6" t="n">
-        <v>186659.9888065528</v>
+        <v>186625.2508811172</v>
       </c>
       <c r="N6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.2788166287</v>
       </c>
       <c r="O6" t="n">
-        <v>271715.0167420644</v>
+        <v>271680.2788166292</v>
       </c>
       <c r="P6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.278816629</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89.77897763946987</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>105.9622060194074</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>170.5365110445782</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>306.473237911224</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>30.8339507744177</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>225.2878348729095</v>
+        <v>179.5651321021753</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>121.0536152320405</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>355.9549289781752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>80.2796548763795</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.699001478442966</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302374</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,19 +32078,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245826</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236508</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043726</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579301</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.3390294385611</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
